--- a/static/example/excelDemo.xlsx
+++ b/static/example/excelDemo.xlsx
@@ -34,13 +34,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,22 +51,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,38 +111,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,21 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +143,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,24 +178,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +203,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,151 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,16 +397,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -439,6 +433,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -449,6 +458,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,183 +494,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -654,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,14 +1002,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1025,7 +1019,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
